--- a/Engagement/BCIO-engagement-hierarchy.xlsx
+++ b/Engagement/BCIO-engagement-hierarchy.xlsx
@@ -447,14 +447,14 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>Informal definition</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
       <c r="J1" t="inlineStr">
         <is>
           <t>Examples</t>
@@ -462,24 +462,24 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>MFOEM:000001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>participant engagement with intervention</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -487,198 +487,152 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>participant engagement with behaviour change intervention</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>MFOEM:000169</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Enjoying or liking the intervention</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
-“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050527</t>
+          <t>MFOEM:000225</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>mistrust</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through mistrust</t>
-        </is>
-      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves mistrust.</t>
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050526</t>
+          <t>MFOEM:000033</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through fear</t>
-        </is>
-      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves fear.</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>MFOEM:000218</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through enjoyment</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves enjoyment.</t>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>MF:0000018</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>attending</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through interest</t>
-        </is>
-      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves interest.</t>
+          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -686,36 +640,29 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
-“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
-The opposite of interest is boredom.</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Focusing on particular internal or external stimuli.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through satisfaction</t>
-        </is>
-      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -723,144 +670,104 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement</t>
-        </is>
-      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through comprehension</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves comprehension.</t>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through attention</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves attending.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Paying attention to an intervention’s content</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Paying attention to certain images or information within the intervention</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013030</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through judging</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves a judging process.</t>
+          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -868,34 +775,40 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
+Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
+          <t>BCIO:013035</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>BCI engagement period</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
+          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -903,64 +816,80 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Any behaviour performed to engage with an intervention and its content.</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
+          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>BCIO:013025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the length of an engagement event.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:013030</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+          <t>BCIO:050549</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>temporal reference point associated with behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+          <t>A time point against which behavioural BCI engagement is referenced.</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -968,80 +897,54 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
-        </is>
-      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
-Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
+          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:013035</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>BCI engagement period</t>
-        </is>
-      </c>
+          <t>BCIO:050524</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement frequency statistic</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
+          <t>BCIO:050531</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1049,40 +952,29 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>A 30-minute session, 1 hour spent 'logged in'</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
+          <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050549</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>temporal reference point associated with behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
+          <t>BCIO:050536</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>mean behavioural BCI engagement frequency</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>A time point against which behavioural BCI engagement is referenced.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1092,27 +984,27 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
+          <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement frequency</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>BCIO:050541</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>median behavioural BCI engagement frequency</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1122,34 +1014,27 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
-The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
+          <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>number of behavioural BCI engagements</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>BCIO:050546</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>minimum behavioural BCI engagement frequency</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1159,13 +1044,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
-Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
+          <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
@@ -1197,20 +1076,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050530</t>
+          <t>BCIO:050535</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement duration</t>
+          <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1220,27 +1099,27 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>The maximum duration of intervention sessions attended by participants.</t>
+          <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050540</t>
+          <t>BCIO:050530</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1250,7 +1129,7 @@
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>The median duration of intervention sessions attended by participants.</t>
+          <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
@@ -1287,20 +1166,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050535</t>
+          <t>BCIO:050540</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement duration</t>
+          <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1310,19 +1189,19 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>The mean duration of intervention sessions attended by participants.</t>
+          <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050525</t>
+          <t>BCIO:050522</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
@@ -1330,7 +1209,7 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
+          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1342,20 +1221,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050542</t>
+          <t>BCIO:050539</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement number</t>
+          <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1365,27 +1244,27 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>The median number of intervention sessions attended by participants.</t>
+          <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050537</t>
+          <t>BCIO:050534</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement number</t>
+          <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1395,27 +1274,27 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>The mean number of intervention sessions attended by participants.</t>
+          <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050547</t>
+          <t>BCIO:050544</t>
         </is>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement number</t>
+          <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1425,27 +1304,27 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>The minimum number of intervention sessions attended by participants.</t>
+          <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050532</t>
+          <t>BCIO:050529</t>
         </is>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement number</t>
+          <t>maximum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1455,7 +1334,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>The maximum number of intervention sessions attended by participants.</t>
+          <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
@@ -1487,20 +1366,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:050538</t>
+          <t>BCIO:050543</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr">
         <is>
-          <t>median BCI engagement period</t>
+          <t>minimum BCI engagement period</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
+          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1510,27 +1389,27 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>The median period of intervention that participants engaged with.</t>
+          <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:050543</t>
+          <t>BCIO:050538</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr">
         <is>
-          <t>minimum BCI engagement period</t>
+          <t>median BCI engagement period</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
+          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1540,7 +1419,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>The minimum period of intervention that participants engaged with.</t>
+          <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
     </row>
@@ -1607,12 +1486,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:050524</t>
+          <t>BCIO:013015</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement frequency statistic</t>
+          <t>number of behavioural BCI engagements</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1620,62 +1499,68 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
+Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:050541</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>median behavioural BCI engagement frequency</t>
-        </is>
-      </c>
+          <t>BCIO:050525</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement number statistic</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:050536</t>
+          <t>BCIO:050547</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement frequency</t>
+          <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1685,27 +1570,27 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>The mean frequency of intervention sessions attended by participants.</t>
+          <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050531</t>
+          <t>BCIO:050542</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement frequency</t>
+          <t>median behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1715,27 +1600,27 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>The maximum frequency of intervention sessions attended by participants.</t>
+          <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:050546</t>
+          <t>BCIO:050532</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement frequency</t>
+          <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -1745,52 +1630,57 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>The minimum frequency of intervention sessions attended by participants.</t>
+          <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:050522</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>BCIO:050537</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>mean behavioural BCI engagement number</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050534</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>mean aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+          <t>BCIO:013020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement frequency</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1800,27 +1690,34 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>The mean duration of all intervention sessions attended by participants.</t>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
+The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:050544</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>minimum aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+          <t>BCIO:050916</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1828,59 +1725,54 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>The minimum duration of all intervention sessions attended by participants.</t>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050529</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr">
         <is>
-          <t>maximum aggregate behavioural BCI engagement duration</t>
+          <t>participant engagement with behaviour change intervention</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
           <t>Engagement</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:050539</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>median aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1888,29 +1780,39 @@
           <t>Engagement</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Any behaviour performed to engage with an intervention and its content.</t>
+        </is>
+      </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>The median duration of all intervention sessions attended by participants.</t>
+          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
+          <t>BCIO:013060</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -1918,224 +1820,317 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Enjoying or liking the intervention</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
+“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:050526</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
+      <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through fear</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>Emotional BCI engagement that involves fear.</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
+          <t>BCIO:013065</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through enjoyment</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+          <t>Emotional BCI engagement that involves enjoyment.</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MFOEM:000001</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
+          <t>BCIO:013070</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through satisfaction</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+          <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>BCIO:050527</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through mistrust</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>Emotional BCI engagement that involves mistrust.</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MFOEM:000225</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>mistrust</t>
-        </is>
-      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through interest</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
+          <t>Emotional BCI engagement that involves interest.</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
+“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
+The opposite of interest is boredom.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through comprehension</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
+          <t>BCIO:013045</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through attention</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+          <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>Engagement</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Paying attention to an intervention’s content</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MF:0000018</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
+          <t>BCIO:013055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through judging</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
+          <t>A cognitive BCI engagement that involves a judging process.</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2143,9 +2138,14 @@
           <t>Engagement</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Focusing on particular internal or external stimuli.</t>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
         </is>
       </c>
     </row>

--- a/Engagement/BCIO-engagement-hierarchy.xlsx
+++ b/Engagement/BCIO-engagement-hierarchy.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -448,22 +448,22 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Informal definition</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
           <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Comment</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -475,12 +475,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
+          <t>IAO:0000027</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/MF_0000020</t>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,13 +491,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MF:0000008</t>
+          <t>BCIO:013015</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>number of behavioural BCI engagements</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -505,12 +505,18 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
+Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -522,21 +528,21 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:050522</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
@@ -548,26 +554,26 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MF:0000018</t>
+          <t>BCIO:050534</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>attending</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>mean aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Focusing on particular internal or external stimuli.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -579,21 +585,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MF:0000006</t>
+          <t>BCIO:050539</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>median aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -605,37 +616,57 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
-        </is>
-      </c>
+          <t>BCIO:050544</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>minimum aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The minimum duration of all intervention sessions attended by participants.</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050522</t>
+          <t>BCIO:050529</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>maximum aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The maximum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
@@ -647,26 +678,21 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050529</t>
+          <t>BCIO:050525</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>maximum aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement number statistic</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>The maximum duration of all intervention sessions attended by participants.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
@@ -678,26 +704,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050534</t>
+          <t>BCIO:050537</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>mean aggregate behavioural BCI engagement duration</t>
+          <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>The mean duration of all intervention sessions attended by participants.</t>
+          <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -709,26 +735,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050539</t>
+          <t>BCIO:050532</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>median aggregate behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>The median duration of all intervention sessions attended by participants.</t>
+          <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -740,26 +766,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050544</t>
+          <t>BCIO:050547</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>minimum aggregate behavioural BCI engagement duration</t>
+          <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>The minimum duration of all intervention sessions attended by participants.</t>
+          <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -771,21 +797,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050525</t>
+          <t>BCIO:050542</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement number statistic</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>median behavioural BCI engagement number</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
+          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
@@ -797,26 +828,21 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BCIO:050532</t>
+          <t>BCIO:050524</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>maximum behavioural BCI engagement number</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement frequency statistic</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>The maximum number of intervention sessions attended by participants.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
@@ -828,26 +854,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050542</t>
+          <t>BCIO:050531</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement number</t>
+          <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>The median number of intervention sessions attended by participants.</t>
+          <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -859,26 +885,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050547</t>
+          <t>BCIO:050536</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement number</t>
+          <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>The minimum number of intervention sessions attended by participants.</t>
+          <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -890,26 +916,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050537</t>
+          <t>BCIO:050546</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement number</t>
+          <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>The mean number of intervention sessions attended by participants.</t>
+          <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -921,21 +947,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>BCIO:050523</t>
+          <t>BCIO:050541</t>
         </is>
       </c>
       <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement duration statistic</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>median behavioural BCI engagement frequency</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>The median frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -947,26 +978,33 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BCIO:050530</t>
+          <t>BCIO:013020</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>maximum behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement frequency</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>The maximum duration of intervention sessions attended by participants.</t>
+          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
+The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
@@ -978,26 +1016,21 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050540</t>
+          <t>BCIO:050523</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>median behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>The median duration of intervention sessions attended by participants.</t>
+          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -1009,26 +1042,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050545</t>
+          <t>BCIO:050540</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement duration</t>
+          <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>The minimum duration of intervention sessions attended by participants.</t>
+          <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
@@ -1040,26 +1073,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050535</t>
+          <t>BCIO:050530</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement duration</t>
+          <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
+          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>The mean duration of intervention sessions attended by participants.</t>
+          <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -1071,21 +1104,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050524</t>
+          <t>BCIO:050545</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement frequency statistic</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>minimum behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -1097,26 +1135,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050546</t>
+          <t>BCIO:050535</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement frequency</t>
+          <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>The minimum frequency of intervention sessions attended by participants.</t>
+          <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -1128,26 +1166,21 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050541</t>
+          <t>BCIO:050521</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>median behavioural BCI engagement frequency</t>
-        </is>
-      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>BCI engagement period statistic</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the central value of a collection of behavioural BCI engagement frequencies.</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>The median frequency of intervention sessions attended by participants.</t>
+          <t>A data item that is about a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -1159,26 +1192,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050536</t>
+          <t>BCIO:050533</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement frequency</t>
+          <t>mean BCI engagement period</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>The mean frequency of intervention sessions attended by participants.</t>
+          <t>The mean period of intervention  that participants engaged with.</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
@@ -1190,26 +1223,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050531</t>
+          <t>BCIO:050528</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement frequency</t>
+          <t>maximum BCI engagement period</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>The maximum frequency of intervention sessions attended by participants.</t>
+          <t>The maximum period of intervention that participants engaged with.</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -1221,21 +1254,26 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050521</t>
+          <t>BCIO:050538</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>BCI engagement period statistic</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>median BCI engagement period</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of BCI engagement periods.</t>
+          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -1247,26 +1285,26 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050538</t>
+          <t>BCIO:050543</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>median BCI engagement period</t>
+          <t>minimum BCI engagement period</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
+          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>The median period of intervention that participants engaged with.</t>
+          <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -1278,88 +1316,53 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:050533</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
+          <t>BCIO:001000</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_001000</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>mean BCI engagement period</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>The mean period of intervention  that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BCIO:050543</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
+          <t>BFO:0000008</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>minimum BCI engagement period</t>
-        </is>
-      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>The minimum period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BCIO:050528</t>
+          <t>BFO:0000038</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>maximum BCI engagement period</t>
-        </is>
-      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>The maximum period of intervention that participants engaged with.</t>
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -1371,33 +1374,37 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:013020</t>
+          <t>BCIO:013025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement frequency</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs within a unit of time.</t>
+          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
-The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
+          <t>A unit of time that describes the length of an engagement event.</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -1409,32 +1416,36 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
+          <t>BCIO:013035</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>number of behavioural BCI engagements</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>BCI engagement period</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
+          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
-Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
+          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -1446,29 +1457,55 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BFO:0000008</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
+          <t>BCIO:013030</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
+Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:050549</t>
         </is>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>temporal reference point associated with behavioural BCI engagement</t>
         </is>
       </c>
       <c r="D36" t="inlineStr"/>
@@ -1476,7 +1513,12 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+          <t>A time point against which behavioural BCI engagement is referenced.</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
@@ -1488,37 +1530,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>A 30-minute session, 1 hour spent 'logged in'</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -1530,96 +1556,45 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:013030</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
+          <t>BCIO:015000</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_015000</t>
+        </is>
+      </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
-Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCIO:013035</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/MF_0000020</t>
+        </is>
+      </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>BCI engagement period</t>
-        </is>
-      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BCIO:050549</t>
+          <t>MF:0000018</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>temporal reference point associated with behavioural BCI engagement</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1627,12 +1602,12 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A time point against which behavioural BCI engagement is referenced.</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
+          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Focusing on particular internal or external stimuli.</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -1644,58 +1619,78 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_001000</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_040000</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>MF:0000008</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>comprehension</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -1707,63 +1702,42 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
+          <t>BCIO:040000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_040000</t>
+        </is>
+      </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
-        </is>
-      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Enjoying or liking the intervention</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
-“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
@@ -1775,31 +1749,21 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
+          <t>BCIO:013000</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through satisfaction</t>
-        </is>
-      </c>
+      <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
@@ -1811,26 +1775,36 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:050527</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through mistrust</t>
-        </is>
-      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves mistrust.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+          <t>Any behaviour performed to engage with an intervention and its content.</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
@@ -1842,33 +1816,37 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>BCIO:013060</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through interest</t>
-        </is>
-      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves interest.</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Enjoying or liking the intervention</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
+“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
-“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
-The opposite of interest is boredom.</t>
+          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
@@ -1880,7 +1858,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:050526</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1889,17 +1867,22 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through fear</t>
+          <t>emotional BCI engagement through enjoyment</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves fear.</t>
+          <t>Emotional BCI engagement that involves enjoyment.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -1911,7 +1894,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:050527</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -1920,22 +1903,17 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through enjoyment</t>
+          <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves enjoyment.</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
+          <t>Emotional BCI engagement that involves mistrust.</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
@@ -1947,31 +1925,31 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through satisfaction</t>
+        </is>
+      </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
+          <t>Emotional BCI engagement that involves satisfaction.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
@@ -1983,7 +1961,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
+          <t>BCIO:050526</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1992,22 +1970,17 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through comprehension</t>
+          <t>emotional BCI engagement through fear</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves comprehension.</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
+          <t>Emotional BCI engagement that involves fear.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -2019,7 +1992,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2028,27 +2001,24 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through attention</t>
+          <t>emotional BCI engagement through interest</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves attending.</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Paying attention to certain images or information within the intervention</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Paying attention to an intervention’s content</t>
+          <t>Emotional BCI engagement that involves interest.</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
+“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
+The opposite of interest is boredom.</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
+          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -2060,31 +2030,31 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through judging</t>
-        </is>
-      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves a judging process.</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
+          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -2096,36 +2066,31 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through comprehension</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
+          <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Any behaviour performed to engage with an intervention and its content.</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -2137,37 +2102,72 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_015000</t>
-        </is>
-      </c>
+          <t>BCIO:013045</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr"/>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through attention</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>A cognitive BCI engagement that involves attending.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Paying attention to an intervention’s content</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MFOEM:000001</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
+          <t>BCIO:013055</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through judging</t>
+        </is>
+      </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+          <t>A cognitive BCI engagement that involves a judging process.</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -2179,21 +2179,21 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
+          <t>MFOEM:000001</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -2231,13 +2231,13 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MFOEM:000225</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="inlineStr">
         <is>
-          <t>mistrust</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -2245,25 +2245,20 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>MFOEM:000033</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="inlineStr">
         <is>
-          <t>fear</t>
+          <t>interest</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -2271,28 +2266,33 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>MFOEM:000225</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr"/>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>mistrust</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">

--- a/Engagement/BCIO-engagement-hierarchy.xlsx
+++ b/Engagement/BCIO-engagement-hierarchy.xlsx
@@ -443,44 +443,44 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>Sub-ontology</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Cross reference</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Synonyms</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
           <t>Examples</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>Comment</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Cross reference</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>Informal definition</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Synonyms</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Sub-ontology</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IAO:0000027</t>
+          <t>MF:0000020</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+          <t>http://purl.obolibrary.org/obo/MF_0000020</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
@@ -491,13 +491,13 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BCIO:013015</t>
+          <t>MF:0000006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>number of behavioural BCI engagements</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -505,21 +505,10 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
-        <is>
-          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
-Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -528,13 +517,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BCIO:050522</t>
+          <t>MF:0000018</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration statistic</t>
+          <t>attending</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -542,72 +531,72 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Focusing on particular internal or external stimuli.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BCIO:050534</t>
+          <t>MF:0000008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>mean aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>The mean duration of all intervention sessions attended by participants.</t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BCIO:050539</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>median aggregate behavioural BCI engagement duration</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
-        <is>
-          <t>The median duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -616,75 +605,45 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BCIO:050544</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>BCIO:015000</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_015000</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>minimum aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>The minimum duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BCIO:050529</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
+          <t>IAO:0000027</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/IAO_0000027</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>maximum aggregate behavioural BCI engagement duration</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>The maximum duration of all intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BCIO:050525</t>
+          <t>BCIO:050523</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement number statistic</t>
+          <t>behavioural BCI engagement duration statistic</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -692,10 +651,10 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
+          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -704,124 +663,124 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BCIO:050537</t>
+          <t>BCIO:050530</t>
         </is>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement number</t>
+          <t>maximum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>The mean number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>The maximum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BCIO:050532</t>
+          <t>BCIO:050535</t>
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement number</t>
+          <t>mean behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>The maximum number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>The mean duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BCIO:050547</t>
+          <t>BCIO:050545</t>
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement number</t>
+          <t>minimum behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>The minimum number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>The minimum duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BCIO:050542</t>
+          <t>BCIO:050540</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement number</t>
+          <t>median behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
+          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>The median number of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>The median duration of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
@@ -845,7 +804,7 @@
           <t>A data item that is about a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -854,93 +813,93 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BCIO:050531</t>
+          <t>BCIO:050536</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement frequency</t>
+          <t>mean behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>The maximum frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>The mean frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BCIO:050536</t>
+          <t>BCIO:050546</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement frequency</t>
+          <t>minimum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the average value calculated from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>The mean frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>The minimum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BCIO:050546</t>
+          <t>BCIO:050531</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement frequency</t>
+          <t>maximum behavioural BCI engagement frequency</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement frequency statistic that is the lowest value from a collection of behavioural BCI engagement frequencies.</t>
+          <t>A behavioural BCI engagement frequency statistic that is the highest value from a collection of behavioural BCI engagement frequencies.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>The minimum frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>The maximum frequency of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
@@ -966,12 +925,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
           <t>The median frequency of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Engagement</t>
         </is>
       </c>
     </row>
@@ -997,32 +956,32 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
           <t xml:space="preserve">Hourly, daily, weekly or monthly encounters. </t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t xml:space="preserve">Describes the frequency of BCI engagement in a BCI (e.g., participants had weekly contact), or the frequency of engagement in part of a BCI (e.g., participants received face-to-face contact once a month). 
 The class “BCI engagement frequency” can be used to capture the frequency of different types of engagement, such as the frequency of engaging with social media or printed material. 
 Depending on how “BCI engagement frequency” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session every week), (2) maximum (e.g., only 10% of participants attended 5 sessions every week), (3) mean (e.g., participants joined 4 sessions per week on average) or (4) median (e.g., the median number of sessions participants attended was 4 per week). </t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BCIO:050523</t>
+          <t>BCIO:050521</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration statistic</t>
+          <t>BCI engagement period statistic</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1030,10 +989,10 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of behavioural BCI engagement durations.</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
+          <t>A data item that is about a collection of BCI engagement periods.</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1042,137 +1001,137 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BCIO:050540</t>
+          <t>BCIO:050533</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t>median behavioural BCI engagement duration</t>
+          <t>mean BCI engagement period</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the central value of a collection of behavioural BCI engagement durations.</t>
+          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>The median duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>The mean period of intervention  that participants engaged with.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BCIO:050530</t>
+          <t>BCIO:050543</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>maximum behavioural BCI engagement duration</t>
+          <t>minimum BCI engagement period</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the highest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>The maximum duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>The minimum period of intervention that participants engaged with.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BCIO:050545</t>
+          <t>BCIO:050528</t>
         </is>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>minimum behavioural BCI engagement duration</t>
+          <t>maximum BCI engagement period</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the lowest value from a collection of behavioural BCI engagement durations.</t>
+          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>The minimum duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>The maximum period of intervention that participants engaged with.</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BCIO:050535</t>
+          <t>BCIO:050538</t>
         </is>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>mean behavioural BCI engagement duration</t>
+          <t>median BCI engagement period</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr">
         <is>
-          <t>A behavioural BCI engagement duration statistic that is the average value calculated from a collection of behavioural BCI engagement durations.</t>
+          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>The mean duration of intervention sessions attended by participants.</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>The median period of intervention that participants engaged with.</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>BCIO:050521</t>
+          <t>BCIO:013015</t>
         </is>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BCI engagement period statistic</t>
+          <t>number of behavioural BCI engagements</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1180,41 +1139,47 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>A data item that is about a collection of BCI engagement periods.</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A data item that is about the number of times behavioural BCI engagement occurs.</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Number of: sessions attended, worksheets initiated, log ins, online posts, online responses. The amount of content viewed or the number of non-consecutive days an intervention was engaged with (e.g. the app was used on 20 days out of a possible 60 days).</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total number of engagement events in a BCI (e.g., participants received 10 sessions face-to-face or by phone), or the number of engagement events related to part of a BCI (e.g., 10% of people participated in 6 face-to-face sessions and 4 phone sessions). 
+Depending on how “number of BCI engagements” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants joined at least 1 session), (2) maximum (e.g., only 10% of participants attended 5 sessions), (3) mean (e.g., participants joined 4 sessions on average) or (4) median (e.g., the median number of sessions participants attended was 4). </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>BCIO:050533</t>
+          <t>BCIO:050522</t>
         </is>
       </c>
       <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>mean BCI engagement period</t>
-        </is>
-      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration statistic</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the average value calculated from a collection of BCI engagement periods.</t>
+          <t>A data item that is about a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
-        <is>
-          <t>The mean period of intervention  that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1223,305 +1188,298 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BCIO:050528</t>
+          <t>BCIO:050539</t>
         </is>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>maximum BCI engagement period</t>
+          <t>median aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the highest value from a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the central value of a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>The maximum period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>The median duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BCIO:050538</t>
+          <t>BCIO:050534</t>
         </is>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>median BCI engagement period</t>
+          <t>mean aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the central value of a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the average value calculated from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>The median period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>The mean duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BCIO:050543</t>
+          <t>BCIO:050544</t>
         </is>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>minimum BCI engagement period</t>
+          <t>minimum aggregate behavioural BCI engagement duration</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>A BCI engagement period statistic that is the lowest value from a collection of BCI engagement periods.</t>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the lowest value from a collection of aggregate behavioural BCI engagement durations.</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>The minimum period of intervention that participants engaged with.</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>The minimum duration of all intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_001000</t>
-        </is>
-      </c>
+          <t>BCIO:050529</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>maximum aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>An aggregate behavioural BCI engagement duration statistic that is the highest value from a collection of aggregate behavioural BCI engagement durations.</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>The maximum duration of all intervention sessions attended by participants.</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BFO:0000008</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>BCIO:050525</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement number statistic</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>A data item that is about a collection of behavioural BCI engagement contact event numbers.</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BFO:0000038</t>
+          <t>BCIO:050532</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>temporal interval</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>maximum behavioural BCI engagement number</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A behavioural BCI engagement number statistic that is the highest value from a collection of behavioural BCI engagement numbers.</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>The maximum number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BCIO:013025</t>
+          <t>BCIO:050537</t>
         </is>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>behavioural BCI engagement duration</t>
+          <t>mean behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
+          <t>A behavioural BCI engagement number statistic that is the average value calculated from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>A 30-minute session, 1 hour spent 'logged in'</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
-Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>A unit of time that describes the length of an engagement event.</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>The mean number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>BCIO:013035</t>
+          <t>BCIO:050547</t>
         </is>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>BCI engagement period</t>
+          <t>minimum behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
+          <t>A behavioural BCI engagement number statistic that is the lowest value from a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>The minimum number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BCIO:013030</t>
+          <t>BCIO:050542</t>
         </is>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>aggregate behavioural BCI engagement duration</t>
+          <t>median behavioural BCI engagement number</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+          <t>A behavioural BCI engagement number statistic that is the central value of a collection of behavioural BCI engagement numbers.</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
-Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>The median number of intervention sessions attended by participants.</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BCIO:050549</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>temporal reference point associated with behavioural BCI engagement</t>
-        </is>
-      </c>
+          <t>MFOEM:000218</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>A time point against which behavioural BCI engagement is referenced.</t>
+          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1530,12 +1488,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>MFOEM:000218</t>
+          <t>MFOEM:000001</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -1544,10 +1502,10 @@
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1556,45 +1514,65 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>BCIO:015000</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_015000</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/MF_0000020</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>MFOEM:000033</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>interest</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MF:0000018</t>
+          <t>MFOEM:000225</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr">
         <is>
-          <t>attending</t>
+          <t>mistrust</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -1602,15 +1580,10 @@
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
         <is>
-          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>Focusing on particular internal or external stimuli.</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
+          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -1619,13 +1592,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>MF:0000006</t>
+          <t>MFOEM:000026</t>
         </is>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>fear</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -1633,232 +1606,241 @@
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MF:0000008</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
+          <t>BCIO:040000</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_040000</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>A mental process that creates, modifies or has as participant some cognitive representation.</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Understanding, or thinking about something or forming or changing beliefs about something. </t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>BCIO:006110</t>
+          <t>BCIO:050916</t>
         </is>
       </c>
       <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>participant engagement with intervention</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
+          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>BCIO:040000</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>http://humanbehaviourchange.org/ontology/BCIO_040000</t>
-        </is>
-      </c>
+          <t>BCIO:013000</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>participant engagement with behaviour change intervention</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BCIO:050916</t>
+          <t>BCIO:013010</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>participant engagement with intervention</t>
-        </is>
-      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>An individual human activity of an intervention participant within one or more parts of the intervention.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>The extend to which someone interacts with an intervention, including their cognitive, emotional and behavioural response (e.g., attending intervention session) to the intervention itself.</t>
+          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>This is distinguished from engagement that involves thought processes.</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Any behaviour performed to engage with an intervention and its content.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BCIO:013000</t>
+          <t>BCIO:013040</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>participant engagement with behaviour change intervention</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Participant engagement with intervention, where the intervention focuses on changing behaviour.</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BCIO:013010</t>
+          <t>BCIO:013050</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>behavioural BCI engagement</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through comprehension</t>
+        </is>
+      </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a behaviour.</t>
+          <t>A cognitive BCI engagement that involves comprehension.</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Eye movements, body movements, meditation, attending an intervention session, using nicotine patches in a smoking cessation intervention, or online activity: attending, logging in, posting on a discussion board, reading content, mouse clicks, viewing, using tools, journaling</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>This is distinguished from engagement that involves thought processes.</t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Any behaviour performed to engage with an intervention and its content.</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BCIO:013060</t>
+          <t>BCIO:013045</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>cognitive BCI engagement through attention</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
+          <t>A cognitive BCI engagement that involves attending.</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Enjoying or liking the intervention</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
-“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
+          <t>Engagement</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
+          <t>Paying attention to certain images or information within the intervention</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Paying attention to an intervention’s content</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCIO:013065</t>
+          <t>BCIO:013055</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1867,65 +1849,76 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through enjoyment</t>
+          <t>cognitive BCI engagement through judging</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves enjoyment.</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
+          <t>A cognitive BCI engagement that involves a judging process.</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>BCIO:050527</t>
+          <t>BCIO:013060</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>emotional BCI engagement through mistrust</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves mistrust.</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
+          <t>Participant engagement with behaviour change intervention in which the engagement activity is an emotion process.</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Enjoying or liking the intervention</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>“Emotional BCI engagement” classes in the ontology are about how engagement is recorded or reported relevant to an individual’s response to the intervention content. Some interventions intend to elicit emotional responses as mechanisms of actions or outcomes, but these are not captured by the current class. 
+“Emotion process” is defined as “A mental process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.”</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t xml:space="preserve">Engagement through having or expressing feelings or emotions in relation to an intervention. </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>BCIO:013070</t>
+          <t>BCIO:050527</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -1934,34 +1927,29 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through satisfaction</t>
+          <t>emotional BCI engagement through mistrust</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves satisfaction.</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Emotional BCI engagement that involves mistrust.</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>“Mistrust” is defined as “A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).”</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BCIO:050526</t>
+          <t>BCIO:013075</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -1970,29 +1958,36 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through fear</t>
+          <t>emotional BCI engagement through interest</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves fear.</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
+          <t>Emotional BCI engagement that involves interest.</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
+“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
+The opposite of interest is boredom.</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BCIO:013075</t>
+          <t>BCIO:013065</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -2001,72 +1996,65 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>emotional BCI engagement through interest</t>
+          <t>emotional BCI engagement through enjoyment</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Emotional BCI engagement that involves interest.</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>In the Emotion Ontology, “interest” is defined as “a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli.” 
-“Emotional BCI engagement through interest” can have a cognitive component or be associated with “cognitive BCI engagement through attending” or “cognitive engagement through evaluation”, as emotion and cognitive processes are often related. For instance, participants rating the “informativeness” of an intervention would qualify as a “cognitive engagement through evaluation”. 
-The opposite of interest is boredom.</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>Experiencing interest in the intervention by creating a desire to learn more.</t>
+          <t>Emotional BCI engagement that involves enjoyment.</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>“Enjoyment” is defined as “A positive emotion that is about an ongoing experience and reflects that the experience is being appraised as pleasurable.”</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>Experiencing pleasure through interacting/using the intervention (e.g., gamification).</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BCIO:013040</t>
+          <t>BCIO:050526</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>emotional BCI engagement through fear</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Participant engagement with behaviour change intervention in which the engagement activity is a cognitive process.</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>Describes engagement which can be demonstrated through reviewing, understanding, learning or recalling the intervention content. Cognitive processes entail the act of directing the mind to see, listen or understand.</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paying attention or understanding an intervention’s content, thinking, forming, or changing beliefs about intervention </t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>Emotional BCI engagement that involves fear.</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>“Fear” is defined as “A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.”</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCIO:013050</t>
+          <t>BCIO:013070</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -2075,128 +2063,83 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>cognitive BCI engagement through comprehension</t>
+          <t>emotional BCI engagement through satisfaction</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>A cognitive BCI engagement that involves comprehension.</t>
+          <t>Emotional BCI engagement that involves satisfaction.</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Comprehension of meaning, requirements or importance. Formal testing, providing feedback</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>“Comprehension” is defined as “A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.”</t>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>“Satisfaction” is defined as “An emotion that is experienced when one's wishes, expectations or needs are fulfilled.”</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t xml:space="preserve">Experiencing satisfaction by fulfilling needs, expectations or wishes. </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BCIO:013045</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
+          <t>BCIO:001000</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>http://humanbehaviourchange.org/ontology/BCIO_001000</t>
+        </is>
+      </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through attention</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>A cognitive BCI engagement that involves attending.</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Paying attention to certain images or information within the intervention</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>“Attending” is defined as “The process whereby relevant aspects of our mental experience are focused on specific targets.”</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>Paying attention to an intervention’s content</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BCIO:013055</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
+          <t>BFO:0000008</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/BFO_0000008</t>
+        </is>
+      </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>cognitive BCI engagement through judging</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>A cognitive BCI engagement that involves a judging process.</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>“Judging” is defined as “A &lt;mental process&gt; during which information is evaluated, the outcome of which is a belief or opinion.”</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>Evaluations of usefulness, relevance usability or effectiveness.</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>Engagement</t>
-        </is>
-      </c>
+      <c r="F57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MFOEM:000001</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>BFO:0000038</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr"/>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>temporal interval</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
+          <t>A one-dimensional temporal region is a temporal region that is extended.</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
         <is>
           <t>Engagement</t>
         </is>
@@ -2205,86 +2148,138 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t>BCIO:013030</t>
         </is>
       </c>
       <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>aggregate behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A temporal interval that is the sum of the duration of behavioural BCI engagements for a BCI.</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>90 minutes total app usage, 12 hours of counselling sessions</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Describes the total duration of engagement in a BCI (e.g., all face-to-face sessions AND all telephone contacts), or the total duration of engagement in part of a BCI (e.g., all face-to-face sessions only). (A unit of time that describes the summed duration of all BCI engagement events.) 
+Depending on how “aggregate BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 50 minutes in total across the sessions, (2) maximum (e.g., participants talked to the therapist for up to 4.5 hours in total across the sessions, (3) mean (e.g., participants talked with the therapist, on average, for 3 hours in total across the sessions) or (4) median (e.g., the median length of time participants talked with therapists in all their session was 3 hours). </t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>A unit of time that describes the summed duration of all BCI engagement events.</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MFOEM:000026</t>
+          <t>BCIO:013035</t>
         </is>
       </c>
       <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>BCI engagement period</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+          <t>A temporal interval between the start of the first behavioural BCI engagement and the end of the last behavioural BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The video content was accessed for 6 weeks, the classes were attended for 12 months. </t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Depending on how “BCI engagement period” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants attended the classes for at least 2 weeks, (2) maximum (e.g., participants attended the classes for up to 6 weeks, (3) mean (e.g., participants attended classes for 4 weeks on average) or (4) median (e.g., the median length participants attended classes was 4 weeks).</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The total period of time between the first and last occasion of engagement with the intervention content. </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MFOEM:000033</t>
+          <t>BCIO:013025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>interest</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>behavioural BCI engagement duration</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+          <t>A temporal interval between the start and end of a behavioural BCI engagement.</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>A 30-minute session, 1 hour spent 'logged in'</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>The class “BCI engagement duration” can be used multiple times to capture the frequency of different types of engagements, such as the frequency of engaging with social media or printed material. 
+Depending on how “BCI engagement duration” is reported in interventions, it can be annotated with different data items, e.g. (1) minimum (e.g., all participants talked to the therapist for at least 10 minutes in each session, (2) maximum (e.g., participants talked to the therapist for up to 1 hour in each session, (3) mean (e.g., participants talked with the therapist for 45 minutes on average in each session) or (4) median (e.g., the median length of calls between participants and therapists was 42 minutes in each session).</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Engagement</t>
+          <t>A unit of time that describes the length of an engagement event.</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MFOEM:000225</t>
+          <t>BCIO:050549</t>
         </is>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr">
         <is>
-          <t>mistrust</t>
+          <t>temporal reference point associated with behavioural BCI engagement</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -2292,12 +2287,17 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>A negative emotion involving feelings of suspicion or doubt regarding the honesty, fairness, or abilities of an entity (e.g., person, object, or situation).</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>Engagement</t>
+          <t>A time point against which behavioural BCI engagement is referenced.</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Engagement</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">First engagement with an app (e.g., 2 weeks after app launch) </t>
         </is>
       </c>
     </row>

--- a/Engagement/BCIO-engagement-hierarchy.xlsx
+++ b/Engagement/BCIO-engagement-hierarchy.xlsx
@@ -531,7 +531,7 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>temporal interval</t>
+          <t>one-dimensional temporal region</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
@@ -744,7 +744,7 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>p is a process = Def. p is an occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t. (axiom label in BFO2 Reference: [083-003])</t>
+          <t>An occurrent that has temporal proper parts and for some time t, p s-depends_on some material entity at t.</t>
         </is>
       </c>
     </row>
@@ -2132,7 +2132,7 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>the process whereby relevant aspects of our mental experience are focused on specific targets</t>
+          <t>A mental process whereby relevant aspects of one's mental experience are focused on specific targets.</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -2312,7 +2312,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -2693,7 +2693,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli</t>
+          <t>Interest is a positive emotion which motivates learning, exploration and curiosity. Feelings of interest are associated with the novelty and complexity of stimuli. [Source: OCEAS]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -2852,7 +2852,7 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Genuss</t>
+          <t>jouissance</t>
         </is>
       </c>
       <c r="J84" t="inlineStr"/>
@@ -3797,7 +3797,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BCIO:046000</t>
+          <t>BCIO:001000</t>
         </is>
       </c>
       <c r="B122" t="inlineStr"/>
@@ -3805,7 +3805,7 @@
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>intervention content</t>
+          <t>behaviour change intervention scenario</t>
         </is>
       </c>
       <c r="F122" t="inlineStr"/>
@@ -3815,57 +3815,57 @@
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
         <is>
-          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
+          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BCIO:007000</t>
+          <t>BCIO:046000</t>
         </is>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>behaviour change intervention content</t>
-        </is>
-      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>intervention content</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr">
         <is>
-          <t>An intervention content that is part of a behaviour change intervention.</t>
+          <t>A planned process that is part of an intervention and is intended to be causally active in influencing the intervention outcome.</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>BCIO:001000</t>
+          <t>BCIO:007000</t>
         </is>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="inlineStr"/>
       <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>behaviour change intervention scenario</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>behaviour change intervention content</t>
+        </is>
+      </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">
         <is>
-          <t>A planned process in which a BCI is applied in a given context, including BCI engagement and outcome behaviour.</t>
+          <t>An intervention content that is part of a behaviour change intervention.</t>
         </is>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>characteristic</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -4290,7 +4290,7 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+          <t>b is a relational specifically dependent continuant = Def. b is a specifically dependent continuant and there are n &amp;gt; 1 independent continuants c1, … cn which are not spatial regions are such that for all 1  i &amp;lt; j  n, ci  and cj share no common parts, are such that for each 1  i  n, b s-depends_on ci at every time t during the course of b’s existence (axiom label in BFO2 Reference: [131-004])</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="C167" t="inlineStr"/>
       <c r="D167" t="inlineStr">
         <is>
-          <t>realizable</t>
+          <t>realizable entity</t>
         </is>
       </c>
       <c r="E167" t="inlineStr"/>
@@ -5227,7 +5227,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MF:0000202</t>
+          <t>MFOEM:000007</t>
         </is>
       </c>
       <c r="B180" t="inlineStr"/>
@@ -5237,7 +5237,7 @@
       <c r="F180" t="inlineStr"/>
       <c r="G180" t="inlineStr">
         <is>
-          <t>personality</t>
+          <t>emotional action tendency</t>
         </is>
       </c>
       <c r="H180" t="inlineStr"/>
@@ -5245,14 +5245,14 @@
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
-          <t>A personality is a complex sum of dispositions and predispositions towards mental processes and behaviour. It inheres in a person.</t>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>MFOEM:000007</t>
+          <t>MF:0000043</t>
         </is>
       </c>
       <c r="B181" t="inlineStr"/>
@@ -5262,7 +5262,7 @@
       <c r="F181" t="inlineStr"/>
       <c r="G181" t="inlineStr">
         <is>
-          <t>emotional action tendency</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="H181" t="inlineStr"/>
@@ -5270,14 +5270,14 @@
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MF:0000043</t>
+          <t>MF:0000048</t>
         </is>
       </c>
       <c r="B182" t="inlineStr"/>
@@ -5285,24 +5285,24 @@
       <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="H182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
+          <t>A personal capability that includes mental processes in its realisation.</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MF:0000048</t>
+          <t>MF:0000050</t>
         </is>
       </c>
       <c r="B183" t="inlineStr"/>
@@ -5311,23 +5311,23 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="I183" t="inlineStr"/>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>linguistic capability</t>
+        </is>
+      </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
-          <t>A personal capability that includes mental processes in its realisation.</t>
+          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MF:0000050</t>
+          <t>MF:0000033</t>
         </is>
       </c>
       <c r="B184" t="inlineStr"/>
@@ -5335,24 +5335,24 @@
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
       <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>linguistic capability</t>
-        </is>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
-          <t>A mental capability that is realised in processes of communication involving language or in expressions of language.</t>
+          <t>A &lt;bodily disposition&gt; that is realized in a mental process.</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t>ADDICTO:0000349</t>
         </is>
       </c>
       <c r="B185" t="inlineStr"/>
@@ -5360,24 +5360,24 @@
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="H185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>addiction</t>
+        </is>
+      </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition is a bodily disposition that is realized in a mental process. </t>
+          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ADDICTO:0000349</t>
+          <t>MF:0000041</t>
         </is>
       </c>
       <c r="B186" t="inlineStr"/>
@@ -5388,21 +5388,21 @@
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="inlineStr">
         <is>
-          <t>addiction</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
-          <t>A mental disposition towards repeated episodes of abnormally high levels of motivation to engage in a behaviour, acquired as a result of engaging in the behaviour, where the behaviour results in risk or occurrence of serious net harm.</t>
+          <t>A mental disposition to represent a proposition to be true.</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MF:0000041</t>
+          <t>ADDICTO:0001378</t>
         </is>
       </c>
       <c r="B187" t="inlineStr"/>
@@ -5410,24 +5410,24 @@
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>drug withdrawal syndrome</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
-          <t>A mental disposition to represent a proposition to be true.</t>
+          <t>A bodily disposition to undergo pathological processes characterized by physiological or psychological dysfunction that exists in an organism because of homeostatic disruption resulting from the cessation or reduction of repeated drug exposure.</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ADDICTO:0001378</t>
+          <t>MF:0000203</t>
         </is>
       </c>
       <c r="B188" t="inlineStr"/>
@@ -5437,7 +5437,7 @@
       <c r="F188" t="inlineStr"/>
       <c r="G188" t="inlineStr">
         <is>
-          <t>drug withdrawal syndrome</t>
+          <t>personality trait</t>
         </is>
       </c>
       <c r="H188" t="inlineStr"/>
@@ -5445,14 +5445,14 @@
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
-          <t>A bodily disposition to undergo pathological processes characterized by physiological or psychological dysfunction that exists in an organism because of homeostatic disruption resulting from the cessation or reduction of repeated drug exposure.</t>
+          <t xml:space="preserve">A personality trait is an individual disposition or predisposition that forms part of an overall personality and is realized in repeated occurrences of a specific mental process type or behavioural profile. </t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MF:0000203</t>
+          <t>MFOEM:000204</t>
         </is>
       </c>
       <c r="B189" t="inlineStr"/>
@@ -5460,24 +5460,24 @@
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr">
-        <is>
-          <t>personality trait</t>
-        </is>
-      </c>
-      <c r="H189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>emotional personality trait</t>
+        </is>
+      </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
-          <t xml:space="preserve">A personality trait is an individual disposition or predisposition that forms part of an overall personality and is realized in repeated occurrences of a specific mental process type or behavioural profile. </t>
+          <t xml:space="preserve">An emotional personality trait is a personality trait, a part of an overall personality, which predisposes the individual to repeated occurrences of a characteristic emotional process. </t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MFOEM:000204</t>
+          <t>MF:0000202</t>
         </is>
       </c>
       <c r="B190" t="inlineStr"/>
@@ -5485,17 +5485,17 @@
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>emotional personality trait</t>
-        </is>
-      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>personality</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotional personality trait is a personality trait, a part of an overall personality, which predisposes the individual to repeated occurrences of a characteristic emotional process. </t>
+          <t>A personality is a complex sum of dispositions and predispositions towards mental processes and behaviour. It inheres in a person.</t>
         </is>
       </c>
     </row>
@@ -5590,7 +5590,7 @@
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
-          <t>A continuant that is a bearer of quality and realizable entity entities, in which other entities inhere and which itself cannot inhere in anything.</t>
+          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. (axiom label in BFO2 Reference: [017-002])</t>
         </is>
       </c>
     </row>
@@ -6557,7 +6557,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>ENVO:00000000</t>
+          <t>ENVO:01001199</t>
         </is>
       </c>
       <c r="B234" t="inlineStr"/>
@@ -6566,7 +6566,7 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>geographic feature</t>
+          <t>terrestrial environmental zone</t>
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
@@ -6575,14 +6575,14 @@
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
-          <t>An astrononmical body part which delimited by physical discontinuities with its surroundings.</t>
+          <t>An environmental zone which is bounded by material parts of a land mass or the atmosphere or space adjacent to it.</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ENVO:00000002</t>
+          <t>ENVO:01001305</t>
         </is>
       </c>
       <c r="B235" t="inlineStr"/>
@@ -6592,7 +6592,7 @@
       <c r="F235" t="inlineStr"/>
       <c r="G235" t="inlineStr">
         <is>
-          <t>anthropogenic geographic feature</t>
+          <t>vegetated area</t>
         </is>
       </c>
       <c r="H235" t="inlineStr"/>
@@ -6600,14 +6600,14 @@
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
-          <t>An anthropogenic geographic feature is a geographic feature resulting from the influence of human beings on nature.</t>
+          <t>A vegetated area is a geographic feature which has ground cover dominated by plant communities.</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>ENVO:00000562</t>
+          <t>ENVO:00000106</t>
         </is>
       </c>
       <c r="B236" t="inlineStr"/>
@@ -6618,46 +6618,46 @@
       <c r="G236" t="inlineStr"/>
       <c r="H236" t="inlineStr">
         <is>
-          <t>park</t>
+          <t>grassland area</t>
         </is>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
-          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
+          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>ENVO:01001784</t>
+          <t>ENVO:00000109</t>
         </is>
       </c>
       <c r="B237" t="inlineStr"/>
       <c r="C237" t="inlineStr"/>
       <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>compound astronomical body part</t>
-        </is>
-      </c>
+      <c r="F237" t="inlineStr"/>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>woodland area</t>
+        </is>
+      </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
-          <t>A part of an astronomical body which is composed of a continuous medium bearing liquid, gaseous, and solid material in variable quantities.</t>
+          <t>Land having a cover of trees, shrubs, or both.</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>ENVO:00000191</t>
+          <t>ENVO:00000111</t>
         </is>
       </c>
       <c r="B238" t="inlineStr"/>
@@ -6665,49 +6665,49 @@
       <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr">
-        <is>
-          <t>solid astronomical body part</t>
-        </is>
-      </c>
+      <c r="G238" t="inlineStr"/>
       <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
+      <c r="I238" t="inlineStr">
+        <is>
+          <t>forested area</t>
+        </is>
+      </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
-          <t>A part of an astronomical body which is primarily composed of solid material.</t>
+          <t>An area with a high density of trees. A small forest may be called a wood.</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>ENVO:01001886</t>
+          <t>ENVO:00000000</t>
         </is>
       </c>
       <c r="B239" t="inlineStr"/>
       <c r="C239" t="inlineStr"/>
       <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>geographic feature</t>
+        </is>
+      </c>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>landform</t>
-        </is>
-      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
-          <t>A solid astronomical body part which has been formed from and is composed primarily of the matter of that astronomical body.</t>
+          <t>An astrononmical body part which delimited by physical discontinuities with its surroundings.</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>ENVO:01001884</t>
+          <t>ENVO:00000002</t>
         </is>
       </c>
       <c r="B240" t="inlineStr"/>
@@ -6715,24 +6715,24 @@
       <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>anthropogenic geographic feature</t>
+        </is>
+      </c>
       <c r="H240" t="inlineStr"/>
-      <c r="I240" t="inlineStr">
-        <is>
-          <t>surface landform</t>
-        </is>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
-          <t>A landform which occurs on the surface of an astronomical body.</t>
+          <t>An anthropogenic geographic feature is a geographic feature resulting from the influence of human beings on nature.</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>ENVO:00000091</t>
+          <t>ENVO:00000562</t>
         </is>
       </c>
       <c r="B241" t="inlineStr"/>
@@ -6741,23 +6741,23 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr"/>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>park</t>
+        </is>
+      </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>beach</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
-          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of water.</t>
+          <t>A bounded area of land, or water, usually in its natural or semi-natural (landscaped) state and set aside for some purpose, usually to do with recreation or conservation.</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ENVO:01001199</t>
+          <t>ENVO:01001784</t>
         </is>
       </c>
       <c r="B242" t="inlineStr"/>
@@ -6766,7 +6766,7 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>terrestrial environmental zone</t>
+          <t>compound astronomical body part</t>
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
@@ -6775,14 +6775,14 @@
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
-          <t>An environmental zone which is bounded by material parts of a land mass or the atmosphere or space adjacent to it.</t>
+          <t>A part of an astronomical body which is composed of a continuous medium bearing liquid, gaseous, and solid material in variable quantities.</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ENVO:01001305</t>
+          <t>ENVO:00000191</t>
         </is>
       </c>
       <c r="B243" t="inlineStr"/>
@@ -6792,7 +6792,7 @@
       <c r="F243" t="inlineStr"/>
       <c r="G243" t="inlineStr">
         <is>
-          <t>vegetated area</t>
+          <t>solid astronomical body part</t>
         </is>
       </c>
       <c r="H243" t="inlineStr"/>
@@ -6800,14 +6800,14 @@
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
-          <t>A vegetated area is a geographic feature which has ground cover dominated by plant communities.</t>
+          <t>A part of an astronomical body which is primarily composed of solid material.</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>ENVO:00000106</t>
+          <t>ENVO:01001886</t>
         </is>
       </c>
       <c r="B244" t="inlineStr"/>
@@ -6818,21 +6818,21 @@
       <c r="G244" t="inlineStr"/>
       <c r="H244" t="inlineStr">
         <is>
-          <t>grassland area</t>
+          <t>landform</t>
         </is>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
-          <t>An area in which grasses (Graminae) are a significant component of the vegetation.</t>
+          <t>A solid astronomical body part which has been formed from and is composed primarily of the matter of that astronomical body.</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>ENVO:00000109</t>
+          <t>ENVO:01001884</t>
         </is>
       </c>
       <c r="B245" t="inlineStr"/>
@@ -6841,23 +6841,23 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr"/>
       <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>woodland area</t>
-        </is>
-      </c>
-      <c r="I245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>surface landform</t>
+        </is>
+      </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
-          <t>Land having a cover of trees, shrubs, or both.</t>
+          <t>A landform which occurs on the surface of an astronomical body.</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>ENVO:00000111</t>
+          <t>ENVO:00000091</t>
         </is>
       </c>
       <c r="B246" t="inlineStr"/>
@@ -6867,15 +6867,15 @@
       <c r="F246" t="inlineStr"/>
       <c r="G246" t="inlineStr"/>
       <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr">
-        <is>
-          <t>forested area</t>
-        </is>
-      </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>beach</t>
+        </is>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>An area with a high density of trees. A small forest may be called a wood.</t>
+          <t>A landform consisting of loose rock particles such as sand, gravel, shingle, pebbles, cobble, or even shell fragments along the shoreline of a body of water.</t>
         </is>
       </c>
     </row>
@@ -6890,7 +6890,7 @@
       <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
-          <t>fiat object part</t>
+          <t>fiat object</t>
         </is>
       </c>
       <c r="F247" t="inlineStr"/>
@@ -7086,7 +7086,7 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>person</t>
+          <t>human being</t>
         </is>
       </c>
       <c r="G255" t="inlineStr"/>
@@ -7305,7 +7305,7 @@
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
-          <t>A continuant that is dependent on one or other independent continuant bearers. For every instance of A requires some instance of (an independent continuant type) B but which instance of B serves can change from time to time.</t>
+          <t>b is a generically dependent continuant = Def. b is a continuant that g-depends_on one or more other entities. (axiom label in BFO2 Reference: [074-001])</t>
         </is>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>IAO:0000033</t>
+          <t>IAO:0000310</t>
         </is>
       </c>
       <c r="B302" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
       <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
-          <t>directive information entity</t>
+          <t>document</t>
         </is>
       </c>
       <c r="F302" t="inlineStr"/>
@@ -8513,14 +8513,14 @@
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr">
         <is>
-          <t>An information content entity whose concretizations indicate to their bearer how to realize them in a process.</t>
+          <t>A collection of information content entities intended to be understood together as a whole</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>IAO:0000007</t>
+          <t>IAO:0000088</t>
         </is>
       </c>
       <c r="B303" t="inlineStr"/>
@@ -8529,7 +8529,7 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>action specification</t>
+          <t>report</t>
         </is>
       </c>
       <c r="G303" t="inlineStr"/>
@@ -8538,14 +8538,14 @@
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr">
         <is>
-          <t>A directive information entity that describes an action the bearer will take.</t>
+          <t>A document assembled by an author for the purpose of providing information for the audience. A report is the output of a documenting process and has the objective to be consumed by a specific audience. Topic of the report is on something that has completed. A report is not a single figure. Examples of reports are journal article, patent application, grant progress report, case report (not patient record).</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>ADDICTO:0000456</t>
+          <t>BCIO:027000</t>
         </is>
       </c>
       <c r="B304" t="inlineStr"/>
@@ -8555,7 +8555,7 @@
       <c r="F304" t="inlineStr"/>
       <c r="G304" t="inlineStr">
         <is>
-          <t>policy</t>
+          <t>behaviour change intervention scenario report</t>
         </is>
       </c>
       <c r="H304" t="inlineStr"/>
@@ -8563,14 +8563,14 @@
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr">
         <is>
-          <t>An action specification of a person or organisation that is realised as a set of rules and activities affecting people or organisations under its jurisdiction.</t>
+          <t>A report that describes a BCI scenario.</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>ADDICTO:0001109</t>
+          <t>BCIO:021000</t>
         </is>
       </c>
       <c r="B305" t="inlineStr"/>
@@ -8578,49 +8578,49 @@
       <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr"/>
-      <c r="G305" t="inlineStr"/>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>public policy</t>
-        </is>
-      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>behaviour change intervention evaluation report</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr">
         <is>
-          <t>A policy that is applied by a public body.</t>
+          <t>A report that is a description of a BCI evaluation study.</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ADDICTO:0001273</t>
+          <t>IAO:0000033</t>
         </is>
       </c>
       <c r="B306" t="inlineStr"/>
       <c r="C306" t="inlineStr"/>
       <c r="D306" t="inlineStr"/>
-      <c r="E306" t="inlineStr"/>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
       <c r="F306" t="inlineStr"/>
       <c r="G306" t="inlineStr"/>
       <c r="H306" t="inlineStr"/>
-      <c r="I306" t="inlineStr">
-        <is>
-          <t>public health promotion policy</t>
-        </is>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr">
         <is>
-          <t>A public policy that aims to improve the health of a population.</t>
+          <t>An information content entity whose concretizations indicate to their bearer how to realize them in a process.</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>OMRSE:00000222</t>
+          <t>IAO:0000007</t>
         </is>
       </c>
       <c r="B307" t="inlineStr"/>
@@ -8629,7 +8629,7 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>debt obligation</t>
+          <t>action specification</t>
         </is>
       </c>
       <c r="G307" t="inlineStr"/>
@@ -8638,14 +8638,14 @@
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr">
         <is>
-          <t>A directive information entity that prescribes that something will be transferred from some human or organization that is the bearer of a duty holder role to another human or organization that is the bearer of a claimant role.</t>
+          <t>A directive information entity that describes an action the bearer will take.</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>OMRSE:00000235</t>
+          <t>ADDICTO:0000456</t>
         </is>
       </c>
       <c r="B308" t="inlineStr"/>
@@ -8655,7 +8655,7 @@
       <c r="F308" t="inlineStr"/>
       <c r="G308" t="inlineStr">
         <is>
-          <t>money</t>
+          <t>policy</t>
         </is>
       </c>
       <c r="H308" t="inlineStr"/>
@@ -8663,64 +8663,64 @@
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr">
         <is>
-          <t>A debt obligation between two parties that has part a scalar value specification and whose concretizations indicate that their bearers can be used in a financial transaction or payment of debt, or as a measure of the value of some entity in a financial valuation process or prospective financial valuation process.</t>
+          <t>An action specification of a person or organisation that is realised as a set of rules and activities affecting people or organisations under its jurisdiction.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>IAO:0000104</t>
+          <t>ADDICTO:0001109</t>
         </is>
       </c>
       <c r="B309" t="inlineStr"/>
       <c r="C309" t="inlineStr"/>
       <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr"/>
-      <c r="F309" t="inlineStr">
-        <is>
-          <t>plan specification</t>
-        </is>
-      </c>
+      <c r="F309" t="inlineStr"/>
       <c r="G309" t="inlineStr"/>
-      <c r="H309" t="inlineStr"/>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>public policy</t>
+        </is>
+      </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr">
         <is>
-          <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
+          <t>A policy that is applied by a public body.</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>IAO:0000310</t>
+          <t>ADDICTO:0001273</t>
         </is>
       </c>
       <c r="B310" t="inlineStr"/>
       <c r="C310" t="inlineStr"/>
       <c r="D310" t="inlineStr"/>
-      <c r="E310" t="inlineStr">
-        <is>
-          <t>document</t>
-        </is>
-      </c>
+      <c r="E310" t="inlineStr"/>
       <c r="F310" t="inlineStr"/>
       <c r="G310" t="inlineStr"/>
       <c r="H310" t="inlineStr"/>
-      <c r="I310" t="inlineStr"/>
+      <c r="I310" t="inlineStr">
+        <is>
+          <t>public health promotion policy</t>
+        </is>
+      </c>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr">
         <is>
-          <t>A collection of information content entities intended to be understood together as a whole</t>
+          <t>A public policy that aims to improve the health of a population.</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>IAO:0000088</t>
+          <t>OMRSE:00000222</t>
         </is>
       </c>
       <c r="B311" t="inlineStr"/>
@@ -8729,7 +8729,7 @@
       <c r="E311" t="inlineStr"/>
       <c r="F311" t="inlineStr">
         <is>
-          <t>report</t>
+          <t>debt obligation</t>
         </is>
       </c>
       <c r="G311" t="inlineStr"/>
@@ -8738,14 +8738,14 @@
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr">
         <is>
-          <t>A document assembled by an author for the purpose of providing information for the audience. A report is the output of a documenting process and has the objective to be consumed by a specific audience. Topic of the report is on something that has completed. A report is not a single figure. Examples of reports are journal article, patent application, grant progress report, case report (not patient record).</t>
+          <t>A directive information entity that prescribes that something will be transferred from some human or organization that is the bearer of a duty holder role to another human or organization that is the bearer of a claimant role.</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>BCIO:027000</t>
+          <t>OMRSE:00000235</t>
         </is>
       </c>
       <c r="B312" t="inlineStr"/>
@@ -8755,7 +8755,7 @@
       <c r="F312" t="inlineStr"/>
       <c r="G312" t="inlineStr">
         <is>
-          <t>behaviour change intervention scenario report</t>
+          <t>money</t>
         </is>
       </c>
       <c r="H312" t="inlineStr"/>
@@ -8763,32 +8763,32 @@
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr">
         <is>
-          <t>A report that describes a BCI scenario.</t>
+          <t>A debt obligation between two parties that has part a scalar value specification and whose concretizations indicate that their bearers can be used in a financial transaction or payment of debt, or as a measure of the value of some entity in a financial valuation process or prospective financial valuation process.</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>BCIO:021000</t>
+          <t>IAO:0000104</t>
         </is>
       </c>
       <c r="B313" t="inlineStr"/>
       <c r="C313" t="inlineStr"/>
       <c r="D313" t="inlineStr"/>
       <c r="E313" t="inlineStr"/>
-      <c r="F313" t="inlineStr"/>
-      <c r="G313" t="inlineStr">
-        <is>
-          <t>behaviour change intervention evaluation report</t>
-        </is>
-      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr"/>
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>A report that is a description of a BCI evaluation study.</t>
+          <t>A directive information entity with action specifications and objective specifications as parts, and that may be concretized as a realizable entity that, if realized, is realized in a process in which the bearer tries to achieve the objectives by taking the actions specified.</t>
         </is>
       </c>
     </row>
@@ -8828,7 +8828,7 @@
       <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
-          <t>dose range specification</t>
+          <t>spécification d’intervalle de dose</t>
         </is>
       </c>
       <c r="F315" t="inlineStr"/>
